--- a/Analyzed/try8/data_2022.xlsx
+++ b/Analyzed/try8/data_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>54.41</v>
       </c>
       <c r="J2">
-        <v>514</v>
+        <v>665.61716</v>
       </c>
       <c r="K2">
         <v>1609.142</v>
       </c>
       <c r="L2">
-        <v>490.98</v>
+        <v>670.4992</v>
       </c>
       <c r="M2">
         <v>70.43788046702944</v>
@@ -558,49 +583,64 @@
         <v>-200.35</v>
       </c>
       <c r="P2">
-        <v>498.0355046055731</v>
+        <v>653.3583614124335</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
         <v>5</v>
       </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
         <v>8</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>8</v>
       </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2">
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
         <v>5</v>
       </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2">
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
         <v>5</v>
       </c>
-      <c r="AC2">
-        <v>2</v>
-      </c>
-      <c r="AD2">
-        <v>6</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>49.16</v>
       </c>
       <c r="J3">
-        <v>476</v>
+        <v>628.6703200000001</v>
       </c>
       <c r="K3">
         <v>1692.263</v>
       </c>
       <c r="L3">
-        <v>434.49</v>
+        <v>640.1983</v>
       </c>
       <c r="M3">
         <v>69.56093635919234</v>
@@ -652,49 +692,64 @@
         <v>-141.25</v>
       </c>
       <c r="P3">
-        <v>498.8769942482552</v>
+        <v>656.6015045284007</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>4</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD3">
         <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>62.99</v>
       </c>
       <c r="J4">
-        <v>504.4</v>
+        <v>691.4845200000001</v>
       </c>
       <c r="K4">
         <v>1472.504</v>
       </c>
       <c r="L4">
-        <v>505.47</v>
+        <v>770.3164</v>
       </c>
       <c r="M4">
         <v>65.30102801153558</v>
@@ -746,32 +801,32 @@
         <v>-100.01</v>
       </c>
       <c r="P4">
-        <v>525.9212490737231</v>
+        <v>686.1561957814869</v>
       </c>
       <c r="Q4">
         <v>2</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>6</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>6</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>1</v>
       </c>
@@ -785,9 +840,24 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>53.56</v>
       </c>
       <c r="J5">
-        <v>472.6</v>
+        <v>562.23789</v>
       </c>
       <c r="K5">
         <v>1536.406</v>
       </c>
       <c r="L5">
-        <v>458.01</v>
+        <v>588.1519</v>
       </c>
       <c r="M5">
         <v>65.21103189566298</v>
@@ -840,37 +910,37 @@
         <v>-120.72</v>
       </c>
       <c r="P5">
-        <v>589.2325832993859</v>
+        <v>774.3450073645463</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
         <v>6</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -879,10 +949,25 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>51.53</v>
       </c>
       <c r="J6">
-        <v>513.8000000000001</v>
+        <v>759.49683</v>
       </c>
       <c r="K6">
         <v>1348.258</v>
       </c>
       <c r="L6">
-        <v>512.8199999999999</v>
+        <v>838.98745</v>
       </c>
       <c r="M6">
         <v>58.80099636359719</v>
@@ -934,49 +1019,64 @@
         <v>-132.79</v>
       </c>
       <c r="P6">
-        <v>417.2642868188997</v>
+        <v>544.2001903839129</v>
       </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
       <c r="Y6">
         <v>2</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB6">
         <v>3</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>44.83</v>
       </c>
       <c r="J7">
-        <v>479.4</v>
+        <v>581.22947</v>
       </c>
       <c r="K7">
         <v>1775.156</v>
       </c>
       <c r="L7">
-        <v>477.33</v>
+        <v>625.37335</v>
       </c>
       <c r="M7">
         <v>68.52473308248945</v>
@@ -1028,48 +1128,63 @@
         <v>-155.28</v>
       </c>
       <c r="P7">
-        <v>462.5956950714228</v>
+        <v>604.8306657493341</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <v>0</v>
       </c>
     </row>
@@ -1104,13 +1219,13 @@
         <v>41.95</v>
       </c>
       <c r="J8">
-        <v>483.8</v>
+        <v>586.1697700000001</v>
       </c>
       <c r="K8">
         <v>2258.95</v>
       </c>
       <c r="L8">
-        <v>493.29</v>
+        <v>648.01555</v>
       </c>
       <c r="M8">
         <v>77.84979918983107</v>
@@ -1122,49 +1237,64 @@
         <v>-146.11</v>
       </c>
       <c r="P8">
-        <v>431.6773756663849</v>
+        <v>564.9440309486808</v>
       </c>
       <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>39.18</v>
       </c>
       <c r="J9">
-        <v>456.6</v>
+        <v>505.50699</v>
       </c>
       <c r="K9">
         <v>1750.683</v>
       </c>
       <c r="L9">
-        <v>448.14</v>
+        <v>579.6727999999999</v>
       </c>
       <c r="M9">
         <v>70.94514960225402</v>
@@ -1216,48 +1346,63 @@
         <v>-168.16</v>
       </c>
       <c r="P9">
-        <v>469.414672660448</v>
+        <v>614.1603281137873</v>
       </c>
       <c r="Q9">
+        <v>9</v>
+      </c>
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0</v>
       </c>
     </row>
@@ -1292,13 +1437,13 @@
         <v>31.72</v>
       </c>
       <c r="J10">
-        <v>451.4</v>
+        <v>464.62823</v>
       </c>
       <c r="K10">
         <v>2360.25</v>
       </c>
       <c r="L10">
-        <v>462.21</v>
+        <v>536.7005</v>
       </c>
       <c r="M10">
         <v>73.62923203844343</v>
@@ -1310,48 +1455,63 @@
         <v>-163.12</v>
       </c>
       <c r="P10">
-        <v>440.0493258114556</v>
+        <v>575.9808502190903</v>
       </c>
       <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <v>8</v>
       </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>6</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>0</v>
       </c>
     </row>
@@ -1386,13 +1546,13 @@
         <v>26.5</v>
       </c>
       <c r="J11">
-        <v>445.8</v>
+        <v>514.71195</v>
       </c>
       <c r="K11">
         <v>1442.361</v>
       </c>
       <c r="L11">
-        <v>438.48</v>
+        <v>522.5864</v>
       </c>
       <c r="M11">
         <v>78.95454752777741</v>
@@ -1404,48 +1564,63 @@
         <v>-218.34</v>
       </c>
       <c r="P11">
-        <v>322.5572299798914</v>
+        <v>418.0904601316782</v>
       </c>
       <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
         <v>10</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0</v>
       </c>
     </row>
